--- a/target/test-classes/excel/TestData.xlsx
+++ b/target/test-classes/excel/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sayan\IdeaProjects\DataDrivenApproch\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0D7BC8-2E65-4589-8058-C9D994C74497}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998670B0-8694-448B-BF44-17BDFD6E2F91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CreateDeleteCustFunctionality" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="56">
   <si>
     <t>TC Name</t>
   </si>
@@ -174,16 +174,10 @@
     <t>Y</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
     <t>Skipp</t>
-  </si>
-  <si>
-    <t>560101</t>
   </si>
   <si>
     <t>500</t>
@@ -530,7 +524,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,7 +577,7 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
         <v>45</v>
@@ -600,11 +594,11 @@
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G3" t="s">
         <v>45</v>
@@ -618,7 +612,7 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -634,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C96219E-A347-4014-A376-320CB641BFF2}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,10 +646,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
         <v>10</v>
@@ -666,16 +660,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
         <v>45</v>
@@ -683,10 +677,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
         <v>45</v>
@@ -703,7 +697,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,7 +756,7 @@
         <v>43</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
         <v>45</v>
@@ -788,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
         <v>45</v>
@@ -814,10 +808,10 @@
         <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -830,7 +824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B70980-4E13-4015-96B1-5FDB52014543}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -895,7 +889,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
         <v>45</v>
@@ -914,7 +908,7 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I3" t="s">
         <v>45</v>
@@ -933,7 +927,7 @@
         <v>39</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I4" t="s">
         <v>45</v>
@@ -945,14 +939,14 @@
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
         <v>42</v>
       </c>
       <c r="H5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I5" t="s">
         <v>45</v>
